--- a/pmi/sector_ranking.xlsx
+++ b/pmi/sector_ranking.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:O199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,36 @@
           <t>2023-10-01</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -510,6 +540,20 @@
         <v>5</v>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -545,6 +589,24 @@
       <c r="I3" t="n">
         <v>-11</v>
       </c>
+      <c r="J3" t="n">
+        <v>-8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -580,6 +642,22 @@
       <c r="I4" t="n">
         <v>-2</v>
       </c>
+      <c r="J4" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -615,6 +693,22 @@
       <c r="I5" t="n">
         <v>1</v>
       </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>-9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -648,6 +742,24 @@
         <v>1</v>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -683,6 +795,18 @@
       <c r="I7" t="n">
         <v>-1</v>
       </c>
+      <c r="J7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -716,6 +840,24 @@
       <c r="I8" t="n">
         <v>-8</v>
       </c>
+      <c r="J8" t="n">
+        <v>-9</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-13</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -751,6 +893,24 @@
       <c r="I9" t="n">
         <v>2</v>
       </c>
+      <c r="J9" t="n">
+        <v>-14</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -786,6 +946,24 @@
       <c r="I10" t="n">
         <v>-9</v>
       </c>
+      <c r="J10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-11</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -821,6 +999,24 @@
       <c r="I11" t="n">
         <v>-5</v>
       </c>
+      <c r="J11" t="n">
+        <v>-12</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-10</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -856,6 +1052,22 @@
       <c r="I12" t="n">
         <v>-6</v>
       </c>
+      <c r="J12" t="n">
+        <v>-13</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -891,6 +1103,22 @@
       <c r="I13" t="n">
         <v>-7</v>
       </c>
+      <c r="J13" t="n">
+        <v>-4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-11</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -926,6 +1154,24 @@
       <c r="I14" t="n">
         <v>-4</v>
       </c>
+      <c r="J14" t="n">
+        <v>-7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -961,6 +1207,24 @@
       <c r="I15" t="n">
         <v>-3</v>
       </c>
+      <c r="J15" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-14</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-10</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-7</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -996,6 +1260,24 @@
       <c r="I16" t="n">
         <v>-12</v>
       </c>
+      <c r="J16" t="n">
+        <v>-11</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-16</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1031,6 +1313,24 @@
       <c r="I17" t="n">
         <v>-13</v>
       </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-15</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>8</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1060,6 +1360,20 @@
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1093,6 +1407,24 @@
       <c r="I19" t="n">
         <v>-10</v>
       </c>
+      <c r="J19" t="n">
+        <v>-10</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-12</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-12</v>
+      </c>
+      <c r="M19" t="n">
+        <v>7</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1128,6 +1460,22 @@
       <c r="I20" t="n">
         <v>-7</v>
       </c>
+      <c r="J20" t="n">
+        <v>-8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1162,6 +1510,24 @@
       </c>
       <c r="I21" t="n">
         <v>-9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-10</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1194,6 +1560,24 @@
       <c r="I22" t="n">
         <v>2</v>
       </c>
+      <c r="J22" t="n">
+        <v>-11</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>7</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1223,6 +1607,22 @@
         <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>-9</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1257,6 +1657,24 @@
       </c>
       <c r="I24" t="n">
         <v>-10</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-12</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>10</v>
+      </c>
+      <c r="N24" t="n">
+        <v>12</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="25">
@@ -1289,6 +1707,18 @@
       <c r="I25" t="n">
         <v>-2</v>
       </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1324,6 +1754,22 @@
       <c r="I26" t="n">
         <v>-8</v>
       </c>
+      <c r="J26" t="n">
+        <v>-4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1358,6 +1804,22 @@
       </c>
       <c r="I27" t="n">
         <v>-3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-13</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M27" t="n">
+        <v>9</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="n">
+        <v>-4</v>
       </c>
     </row>
     <row r="28">
@@ -1388,6 +1850,18 @@
         <v>-4</v>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1423,6 +1897,22 @@
       <c r="I29" t="n">
         <v>-6</v>
       </c>
+      <c r="J29" t="n">
+        <v>-7</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1458,6 +1948,22 @@
       <c r="I30" t="n">
         <v>3</v>
       </c>
+      <c r="J30" t="n">
+        <v>-13</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-11</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1493,6 +1999,24 @@
       <c r="I31" t="n">
         <v>-5</v>
       </c>
+      <c r="J31" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-12</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-10</v>
+      </c>
+      <c r="M31" t="n">
+        <v>11</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1526,6 +2050,24 @@
         <v>-8</v>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>-10</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3</v>
+      </c>
+      <c r="M32" t="n">
+        <v>6</v>
+      </c>
+      <c r="N32" t="n">
+        <v>11</v>
+      </c>
+      <c r="O32" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1553,6 +2095,18 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1584,6 +2138,22 @@
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-8</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1617,6 +2187,24 @@
       <c r="I35" t="n">
         <v>1</v>
       </c>
+      <c r="J35" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="n">
+        <v>7</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1649,6 +2237,20 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
         <v>-4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
@@ -1681,6 +2283,22 @@
       <c r="I37" t="n">
         <v>-1</v>
       </c>
+      <c r="J37" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1708,6 +2326,16 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1742,6 +2370,22 @@
       </c>
       <c r="I39" t="n">
         <v>-8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-11</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>7</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5</v>
+      </c>
+      <c r="O39" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1774,6 +2418,22 @@
       <c r="I40" t="n">
         <v>-7</v>
       </c>
+      <c r="J40" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-9</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-9</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
+        <v>9</v>
+      </c>
+      <c r="O40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1809,6 +2469,24 @@
       <c r="I41" t="n">
         <v>-5</v>
       </c>
+      <c r="J41" t="n">
+        <v>5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-10</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N41" t="n">
+        <v>13</v>
+      </c>
+      <c r="O41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1844,6 +2522,22 @@
       <c r="I42" t="n">
         <v>-3</v>
       </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>-8</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-8</v>
+      </c>
+      <c r="M42" t="n">
+        <v>6</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6</v>
+      </c>
+      <c r="O42" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1876,6 +2570,24 @@
       </c>
       <c r="I43" t="n">
         <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-11</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="44">
@@ -1906,6 +2618,20 @@
         <v>-2</v>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1941,6 +2667,24 @@
       <c r="I45" t="n">
         <v>-4</v>
       </c>
+      <c r="J45" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-12</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1976,6 +2720,20 @@
       <c r="I46" t="n">
         <v>-6</v>
       </c>
+      <c r="J46" t="n">
+        <v>-4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-13</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2009,6 +2767,24 @@
         <v>5</v>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2042,6 +2818,20 @@
       <c r="I48" t="n">
         <v>1</v>
       </c>
+      <c r="J48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2069,6 +2859,20 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2104,6 +2908,24 @@
       <c r="I50" t="n">
         <v>2</v>
       </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-10</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="n">
+        <v>12</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2137,6 +2959,22 @@
       <c r="I51" t="n">
         <v>4</v>
       </c>
+      <c r="J51" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="n">
+        <v>11</v>
+      </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2168,6 +3006,16 @@
       <c r="I52" t="n">
         <v>-1</v>
       </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
+        <v>2</v>
+      </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2201,6 +3049,16 @@
         <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2232,6 +3090,22 @@
         <v>8</v>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
+        <v>8</v>
+      </c>
+      <c r="O54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2262,6 +3136,18 @@
       </c>
       <c r="I55" t="n">
         <v>-2</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="56">
@@ -2288,6 +3174,12 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2321,6 +3213,24 @@
       <c r="I57" t="n">
         <v>-8</v>
       </c>
+      <c r="J57" t="n">
+        <v>3</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-10</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2356,6 +3266,24 @@
       <c r="I58" t="n">
         <v>-7</v>
       </c>
+      <c r="J58" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-8</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-8</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O58" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2389,6 +3317,18 @@
       <c r="I59" t="n">
         <v>-4</v>
       </c>
+      <c r="J59" t="n">
+        <v>-7</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-6</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2424,6 +3364,22 @@
       <c r="I60" t="n">
         <v>-10</v>
       </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-9</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-7</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2459,6 +3415,22 @@
       <c r="I61" t="n">
         <v>4</v>
       </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-9</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-7</v>
+      </c>
+      <c r="N61" t="n">
+        <v>7</v>
+      </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2488,6 +3460,18 @@
         <v>-2</v>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2523,6 +3507,24 @@
       <c r="I63" t="n">
         <v>2</v>
       </c>
+      <c r="J63" t="n">
+        <v>-9</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-8</v>
+      </c>
+      <c r="N63" t="n">
+        <v>6</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2556,6 +3558,24 @@
       <c r="I64" t="n">
         <v>-9</v>
       </c>
+      <c r="J64" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-9</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2587,6 +3607,20 @@
       <c r="I65" t="n">
         <v>1</v>
       </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2617,6 +3651,24 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
         <v>-2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-4</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="67">
@@ -2645,6 +3697,16 @@
         <v>1</v>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>2</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2676,6 +3738,24 @@
       <c r="I68" t="n">
         <v>-5</v>
       </c>
+      <c r="J68" t="n">
+        <v>-8</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2711,6 +3791,22 @@
       <c r="I69" t="n">
         <v>-6</v>
       </c>
+      <c r="J69" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="n">
+        <v>4</v>
+      </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2742,6 +3838,16 @@
       <c r="I70" t="n">
         <v>-1</v>
       </c>
+      <c r="J70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2777,6 +3883,20 @@
       <c r="I71" t="n">
         <v>-3</v>
       </c>
+      <c r="J71" t="n">
+        <v>-4</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2810,6 +3930,24 @@
         <v>4</v>
       </c>
       <c r="I72" t="n">
+        <v>3</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="n">
+        <v>5</v>
+      </c>
+      <c r="O72" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2837,6 +3975,14 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2862,6 +4008,12 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2897,6 +4049,24 @@
       <c r="I75" t="n">
         <v>-7</v>
       </c>
+      <c r="J75" t="n">
+        <v>-4</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-8</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2932,6 +4102,24 @@
       <c r="I76" t="n">
         <v>-6</v>
       </c>
+      <c r="J76" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-4</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2965,6 +4153,22 @@
       <c r="I77" t="n">
         <v>-4</v>
       </c>
+      <c r="J77" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O77" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3000,6 +4204,22 @@
       <c r="I78" t="n">
         <v>-2</v>
       </c>
+      <c r="J78" t="n">
+        <v>-8</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L78" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3035,6 +4255,24 @@
       <c r="I79" t="n">
         <v>2</v>
       </c>
+      <c r="J79" t="n">
+        <v>3</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>5</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2</v>
+      </c>
+      <c r="O79" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3064,6 +4302,14 @@
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3099,6 +4345,24 @@
       <c r="I81" t="n">
         <v>-1</v>
       </c>
+      <c r="J81" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O81" t="n">
+        <v>-6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3133,6 +4397,22 @@
       </c>
       <c r="I82" t="n">
         <v>-5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3</v>
+      </c>
+      <c r="L82" t="n">
+        <v>4</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O82" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="83">
@@ -3161,6 +4441,16 @@
         <v>4</v>
       </c>
       <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3192,6 +4482,18 @@
         <v>3</v>
       </c>
       <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>2</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3223,6 +4525,12 @@
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3256,6 +4564,20 @@
         <v>-1</v>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3289,6 +4611,18 @@
         <v>-2</v>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>-7</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3314,6 +4648,12 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3345,6 +4685,16 @@
         <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3378,6 +4728,24 @@
       <c r="I90" t="n">
         <v>-3</v>
       </c>
+      <c r="J90" t="n">
+        <v>-9</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L90" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="n">
+        <v>4</v>
+      </c>
+      <c r="O90" t="n">
+        <v>-7</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3413,6 +4781,16 @@
       <c r="I91" t="n">
         <v>1</v>
       </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3440,6 +4818,18 @@
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3473,6 +4863,24 @@
       <c r="I93" t="n">
         <v>-10</v>
       </c>
+      <c r="J93" t="n">
+        <v>-13</v>
+      </c>
+      <c r="K93" t="n">
+        <v>3</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-9</v>
+      </c>
+      <c r="M93" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N93" t="n">
+        <v>8</v>
+      </c>
+      <c r="O93" t="n">
+        <v>-6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3508,6 +4916,24 @@
       <c r="I94" t="n">
         <v>-11</v>
       </c>
+      <c r="J94" t="n">
+        <v>-9</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-12</v>
+      </c>
+      <c r="L94" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O94" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3543,6 +4969,24 @@
       <c r="I95" t="n">
         <v>-3</v>
       </c>
+      <c r="J95" t="n">
+        <v>-7</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N95" t="n">
+        <v>7</v>
+      </c>
+      <c r="O95" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3578,6 +5022,24 @@
       <c r="I96" t="n">
         <v>-8</v>
       </c>
+      <c r="J96" t="n">
+        <v>-10</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-13</v>
+      </c>
+      <c r="L96" t="n">
+        <v>-8</v>
+      </c>
+      <c r="M96" t="n">
+        <v>6</v>
+      </c>
+      <c r="N96" t="n">
+        <v>5</v>
+      </c>
+      <c r="O96" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3611,6 +5073,24 @@
       <c r="I97" t="n">
         <v>1</v>
       </c>
+      <c r="J97" t="n">
+        <v>3</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-11</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="n">
+        <v>9</v>
+      </c>
+      <c r="O97" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3644,6 +5124,20 @@
       <c r="I98" t="n">
         <v>-4</v>
       </c>
+      <c r="J98" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>4</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O98" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3679,6 +5173,24 @@
       <c r="I99" t="n">
         <v>-6</v>
       </c>
+      <c r="J99" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L99" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-7</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O99" t="n">
+        <v>-7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3714,6 +5226,22 @@
       <c r="I100" t="n">
         <v>-12</v>
       </c>
+      <c r="J100" t="n">
+        <v>-12</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-6</v>
+      </c>
+      <c r="O100" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3745,6 +5273,22 @@
         <v>1</v>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" t="n">
+        <v>2</v>
+      </c>
+      <c r="O101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3780,6 +5324,22 @@
       <c r="I102" t="n">
         <v>-5</v>
       </c>
+      <c r="J102" t="n">
+        <v>-8</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3</v>
+      </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3807,6 +5367,16 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>-9</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>4</v>
+      </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3840,6 +5410,24 @@
         <v>-5</v>
       </c>
       <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>-11</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-8</v>
+      </c>
+      <c r="L104" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M104" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-4</v>
+      </c>
+      <c r="O104" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3875,6 +5463,22 @@
       <c r="I105" t="n">
         <v>-7</v>
       </c>
+      <c r="J105" t="n">
+        <v>2</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="n">
+        <v>6</v>
+      </c>
+      <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3906,6 +5510,20 @@
       <c r="I106" t="n">
         <v>-2</v>
       </c>
+      <c r="J106" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3937,6 +5555,20 @@
       <c r="I107" t="n">
         <v>-1</v>
       </c>
+      <c r="J107" t="n">
+        <v>-4</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3972,6 +5604,24 @@
       <c r="I108" t="n">
         <v>-9</v>
       </c>
+      <c r="J108" t="n">
+        <v>-14</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-10</v>
+      </c>
+      <c r="L108" t="n">
+        <v>3</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-7</v>
+      </c>
+      <c r="O108" t="n">
+        <v>-8</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4001,6 +5651,18 @@
         <v>-4</v>
       </c>
       <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4026,6 +5688,18 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4059,6 +5733,24 @@
         <v>-10</v>
       </c>
       <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>6</v>
+      </c>
+      <c r="K111" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L111" t="n">
+        <v>-9</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-4</v>
+      </c>
+      <c r="O111" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4094,6 +5786,20 @@
       <c r="I112" t="n">
         <v>3</v>
       </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>6</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-9</v>
+      </c>
+      <c r="O112" t="n">
+        <v>-7</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4127,6 +5833,22 @@
       <c r="I113" t="n">
         <v>-4</v>
       </c>
+      <c r="J113" t="n">
+        <v>7</v>
+      </c>
+      <c r="K113" t="n">
+        <v>5</v>
+      </c>
+      <c r="L113" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-8</v>
+      </c>
+      <c r="N113" t="n">
+        <v>2</v>
+      </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4162,6 +5884,22 @@
       <c r="I114" t="n">
         <v>-5</v>
       </c>
+      <c r="J114" t="n">
+        <v>4</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4197,6 +5935,24 @@
       <c r="I115" t="n">
         <v>-3</v>
       </c>
+      <c r="J115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L115" t="n">
+        <v>-11</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2</v>
+      </c>
+      <c r="N115" t="n">
+        <v>-6</v>
+      </c>
+      <c r="O115" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4230,6 +5986,18 @@
         <v>-5</v>
       </c>
       <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>3</v>
+      </c>
+      <c r="K116" t="n">
+        <v>3</v>
+      </c>
+      <c r="L116" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4265,6 +6033,24 @@
       <c r="I117" t="n">
         <v>-8</v>
       </c>
+      <c r="J117" t="n">
+        <v>-4</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L117" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O117" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4298,6 +6084,22 @@
       <c r="I118" t="n">
         <v>-7</v>
       </c>
+      <c r="J118" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>-8</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-9</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O118" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4329,6 +6131,14 @@
         <v>-4</v>
       </c>
       <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4362,6 +6172,22 @@
       <c r="I120" t="n">
         <v>-1</v>
       </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L120" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O120" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4391,6 +6217,12 @@
         <v>-3</v>
       </c>
       <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4426,6 +6258,22 @@
       <c r="I122" t="n">
         <v>2</v>
       </c>
+      <c r="J122" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K122" t="n">
+        <v>4</v>
+      </c>
+      <c r="L122" t="n">
+        <v>2</v>
+      </c>
+      <c r="M122" t="n">
+        <v>3</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4461,6 +6309,24 @@
       <c r="I123" t="n">
         <v>-2</v>
       </c>
+      <c r="J123" t="n">
+        <v>8</v>
+      </c>
+      <c r="K123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M123" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O123" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4488,6 +6354,14 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>2</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4521,6 +6395,14 @@
       <c r="I125" t="n">
         <v>1</v>
       </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4554,6 +6436,22 @@
         <v>-9</v>
       </c>
       <c r="I126" t="n">
+        <v>-6</v>
+      </c>
+      <c r="J126" t="n">
+        <v>5</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>-10</v>
+      </c>
+      <c r="M126" t="n">
+        <v>-7</v>
+      </c>
+      <c r="N126" t="n">
+        <v>-7</v>
+      </c>
+      <c r="O126" t="n">
         <v>-6</v>
       </c>
     </row>
@@ -4583,6 +6481,22 @@
         <v>-1</v>
       </c>
       <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>2</v>
+      </c>
+      <c r="L127" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M127" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N127" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O127" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4608,6 +6522,14 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+      <c r="O128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4641,6 +6563,24 @@
         <v>-12</v>
       </c>
       <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>-4</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-8</v>
+      </c>
+      <c r="L129" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M129" t="n">
+        <v>9</v>
+      </c>
+      <c r="N129" t="n">
+        <v>5</v>
+      </c>
+      <c r="O129" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4674,6 +6614,22 @@
       <c r="I130" t="n">
         <v>-8</v>
       </c>
+      <c r="J130" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>10</v>
+      </c>
+      <c r="N130" t="n">
+        <v>10</v>
+      </c>
+      <c r="O130" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4709,6 +6665,20 @@
       <c r="I131" t="n">
         <v>-3</v>
       </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>3</v>
+      </c>
+      <c r="L131" t="n">
+        <v>6</v>
+      </c>
+      <c r="M131" t="n">
+        <v>11</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4744,6 +6714,24 @@
       <c r="I132" t="n">
         <v>-6</v>
       </c>
+      <c r="J132" t="n">
+        <v>2</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>3</v>
+      </c>
+      <c r="M132" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N132" t="n">
+        <v>-4</v>
+      </c>
+      <c r="O132" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4777,6 +6765,22 @@
         <v>-6</v>
       </c>
       <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>6</v>
+      </c>
+      <c r="K133" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L133" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>9</v>
+      </c>
+      <c r="O133" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4812,6 +6816,24 @@
       <c r="I134" t="n">
         <v>-5</v>
       </c>
+      <c r="J134" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K134" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L134" t="n">
+        <v>4</v>
+      </c>
+      <c r="M134" t="n">
+        <v>5</v>
+      </c>
+      <c r="N134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O134" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4845,6 +6867,24 @@
         <v>-8</v>
       </c>
       <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>4</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2</v>
+      </c>
+      <c r="L135" t="n">
+        <v>10</v>
+      </c>
+      <c r="M135" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N135" t="n">
+        <v>11</v>
+      </c>
+      <c r="O135" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4880,6 +6920,22 @@
       <c r="I136" t="n">
         <v>-9</v>
       </c>
+      <c r="J136" t="n">
+        <v>5</v>
+      </c>
+      <c r="K136" t="n">
+        <v>4</v>
+      </c>
+      <c r="L136" t="n">
+        <v>7</v>
+      </c>
+      <c r="M136" t="n">
+        <v>4</v>
+      </c>
+      <c r="N136" t="n">
+        <v>6</v>
+      </c>
+      <c r="O136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4913,6 +6969,22 @@
       <c r="I137" t="n">
         <v>1</v>
       </c>
+      <c r="J137" t="n">
+        <v>7</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>5</v>
+      </c>
+      <c r="M137" t="n">
+        <v>7</v>
+      </c>
+      <c r="N137" t="n">
+        <v>7</v>
+      </c>
+      <c r="O137" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4948,6 +7020,18 @@
       <c r="I138" t="n">
         <v>-1</v>
       </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>6</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4983,6 +7067,22 @@
       <c r="I139" t="n">
         <v>-4</v>
       </c>
+      <c r="J139" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N139" t="n">
+        <v>8</v>
+      </c>
+      <c r="O139" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5018,6 +7118,22 @@
       <c r="I140" t="n">
         <v>2</v>
       </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>9</v>
+      </c>
+      <c r="M140" t="n">
+        <v>3</v>
+      </c>
+      <c r="N140" t="n">
+        <v>4</v>
+      </c>
+      <c r="O140" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -5053,6 +7169,24 @@
       <c r="I141" t="n">
         <v>-2</v>
       </c>
+      <c r="J141" t="n">
+        <v>3</v>
+      </c>
+      <c r="K141" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N141" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O141" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5080,6 +7214,20 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>2</v>
+      </c>
+      <c r="N142" t="n">
+        <v>2</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5113,6 +7261,22 @@
         <v>-4</v>
       </c>
       <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>3</v>
+      </c>
+      <c r="O143" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5148,6 +7312,22 @@
       <c r="I144" t="n">
         <v>-7</v>
       </c>
+      <c r="J144" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L144" t="n">
+        <v>8</v>
+      </c>
+      <c r="M144" t="n">
+        <v>8</v>
+      </c>
+      <c r="N144" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5175,6 +7355,12 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5200,6 +7386,12 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -5233,6 +7425,24 @@
       <c r="I147" t="n">
         <v>-11</v>
       </c>
+      <c r="J147" t="n">
+        <v>-14</v>
+      </c>
+      <c r="K147" t="n">
+        <v>5</v>
+      </c>
+      <c r="L147" t="n">
+        <v>-8</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-8</v>
+      </c>
+      <c r="N147" t="n">
+        <v>-11</v>
+      </c>
+      <c r="O147" t="n">
+        <v>-11</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5268,6 +7478,24 @@
       <c r="I148" t="n">
         <v>-4</v>
       </c>
+      <c r="J148" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K148" t="n">
+        <v>-8</v>
+      </c>
+      <c r="L148" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N148" t="n">
+        <v>3</v>
+      </c>
+      <c r="O148" t="n">
+        <v>-8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5303,6 +7531,24 @@
       <c r="I149" t="n">
         <v>-10</v>
       </c>
+      <c r="J149" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K149" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L149" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M149" t="n">
+        <v>4</v>
+      </c>
+      <c r="N149" t="n">
+        <v>-6</v>
+      </c>
+      <c r="O149" t="n">
+        <v>-10</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -5338,6 +7584,22 @@
       <c r="I150" t="n">
         <v>-5</v>
       </c>
+      <c r="J150" t="n">
+        <v>-11</v>
+      </c>
+      <c r="K150" t="n">
+        <v>-9</v>
+      </c>
+      <c r="L150" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M150" t="n">
+        <v>5</v>
+      </c>
+      <c r="N150" t="n">
+        <v>-7</v>
+      </c>
+      <c r="O150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5371,6 +7633,24 @@
       <c r="I151" t="n">
         <v>2</v>
       </c>
+      <c r="J151" t="n">
+        <v>-13</v>
+      </c>
+      <c r="K151" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L151" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M151" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N151" t="n">
+        <v>-12</v>
+      </c>
+      <c r="O151" t="n">
+        <v>-9</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5402,6 +7682,24 @@
         <v>-7</v>
       </c>
       <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>-9</v>
+      </c>
+      <c r="K152" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M152" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N152" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O152" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5437,6 +7735,24 @@
       <c r="I153" t="n">
         <v>-6</v>
       </c>
+      <c r="J153" t="n">
+        <v>-10</v>
+      </c>
+      <c r="K153" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L153" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M153" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N153" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O153" t="n">
+        <v>-7</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5472,6 +7788,24 @@
       <c r="I154" t="n">
         <v>-9</v>
       </c>
+      <c r="J154" t="n">
+        <v>-12</v>
+      </c>
+      <c r="K154" t="n">
+        <v>4</v>
+      </c>
+      <c r="L154" t="n">
+        <v>-9</v>
+      </c>
+      <c r="M154" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N154" t="n">
+        <v>-9</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-6</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5503,6 +7837,20 @@
       <c r="I155" t="n">
         <v>-7</v>
       </c>
+      <c r="J155" t="n">
+        <v>-8</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O155" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5536,6 +7884,20 @@
         <v>-1</v>
       </c>
       <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>2</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>2</v>
+      </c>
+      <c r="N156" t="n">
+        <v>-4</v>
+      </c>
+      <c r="O156" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5567,6 +7929,16 @@
       <c r="I157" t="n">
         <v>-1</v>
       </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>3</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5602,6 +7974,22 @@
       <c r="I158" t="n">
         <v>-8</v>
       </c>
+      <c r="J158" t="n">
+        <v>-7</v>
+      </c>
+      <c r="K158" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>-10</v>
+      </c>
+      <c r="O158" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5635,6 +8023,22 @@
       <c r="I159" t="n">
         <v>1</v>
       </c>
+      <c r="J159" t="n">
+        <v>-4</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>3</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2</v>
+      </c>
+      <c r="O159" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5664,6 +8068,14 @@
       <c r="I160" t="n">
         <v>-3</v>
       </c>
+      <c r="J160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5695,6 +8107,18 @@
         <v>1</v>
       </c>
       <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5728,6 +8152,24 @@
       <c r="I162" t="n">
         <v>3</v>
       </c>
+      <c r="J162" t="n">
+        <v>-15</v>
+      </c>
+      <c r="K162" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L162" t="n">
+        <v>2</v>
+      </c>
+      <c r="M162" t="n">
+        <v>-7</v>
+      </c>
+      <c r="N162" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O162" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5760,6 +8202,22 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
         <v>-2</v>
+      </c>
+      <c r="J163" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K163" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -5786,6 +8244,12 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5817,6 +8281,24 @@
       <c r="I165" t="n">
         <v>-6</v>
       </c>
+      <c r="J165" t="n">
+        <v>6</v>
+      </c>
+      <c r="K165" t="n">
+        <v>3</v>
+      </c>
+      <c r="L165" t="n">
+        <v>-8</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N165" t="n">
+        <v>6</v>
+      </c>
+      <c r="O165" t="n">
+        <v>-6</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5852,6 +8334,22 @@
       <c r="I166" t="n">
         <v>-3</v>
       </c>
+      <c r="J166" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K166" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L166" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
+        <v>-4</v>
+      </c>
+      <c r="O166" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5885,6 +8383,22 @@
         <v>-5</v>
       </c>
       <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M167" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N167" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O167" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -5920,6 +8434,20 @@
       <c r="I168" t="n">
         <v>5</v>
       </c>
+      <c r="J168" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>-9</v>
+      </c>
+      <c r="M168" t="n">
+        <v>3</v>
+      </c>
+      <c r="N168" t="n">
+        <v>5</v>
+      </c>
+      <c r="O168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -5953,6 +8481,24 @@
         <v>3</v>
       </c>
       <c r="I169" t="n">
+        <v>4</v>
+      </c>
+      <c r="J169" t="n">
+        <v>4</v>
+      </c>
+      <c r="K169" t="n">
+        <v>2</v>
+      </c>
+      <c r="L169" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M169" t="n">
+        <v>5</v>
+      </c>
+      <c r="N169" t="n">
+        <v>7</v>
+      </c>
+      <c r="O169" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5980,6 +8526,20 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L170" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O170" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -6015,6 +8575,24 @@
       <c r="I171" t="n">
         <v>-4</v>
       </c>
+      <c r="J171" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K171" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L171" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M171" t="n">
+        <v>6</v>
+      </c>
+      <c r="N171" t="n">
+        <v>8</v>
+      </c>
+      <c r="O171" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -6049,6 +8627,24 @@
       </c>
       <c r="I172" t="n">
         <v>6</v>
+      </c>
+      <c r="J172" t="n">
+        <v>5</v>
+      </c>
+      <c r="K172" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2</v>
+      </c>
+      <c r="M172" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N172" t="n">
+        <v>2</v>
+      </c>
+      <c r="O172" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -6079,6 +8675,18 @@
       <c r="I173" t="n">
         <v>1</v>
       </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>2</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -6108,6 +8716,22 @@
       <c r="I174" t="n">
         <v>2</v>
       </c>
+      <c r="J174" t="n">
+        <v>2</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M174" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N174" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -6133,6 +8757,12 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -6168,6 +8798,22 @@
       <c r="I176" t="n">
         <v>-2</v>
       </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>4</v>
+      </c>
+      <c r="L176" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M176" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N176" t="n">
+        <v>3</v>
+      </c>
+      <c r="O176" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -6200,6 +8846,18 @@
       </c>
       <c r="I177" t="n">
         <v>3</v>
+      </c>
+      <c r="J177" t="n">
+        <v>3</v>
+      </c>
+      <c r="K177" t="n">
+        <v>5</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="178">
@@ -6230,6 +8888,12 @@
       <c r="I178" t="n">
         <v>-1</v>
       </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -6255,6 +8919,16 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -6286,6 +8960,24 @@
       <c r="I180" t="n">
         <v>-5</v>
       </c>
+      <c r="J180" t="n">
+        <v>-4</v>
+      </c>
+      <c r="K180" t="n">
+        <v>6</v>
+      </c>
+      <c r="L180" t="n">
+        <v>3</v>
+      </c>
+      <c r="M180" t="n">
+        <v>4</v>
+      </c>
+      <c r="N180" t="n">
+        <v>4</v>
+      </c>
+      <c r="O180" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -6317,6 +9009,20 @@
         <v>1</v>
       </c>
       <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+      <c r="O181" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -6342,6 +9048,12 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -6377,6 +9089,24 @@
       <c r="I183" t="n">
         <v>3</v>
       </c>
+      <c r="J183" t="n">
+        <v>-10</v>
+      </c>
+      <c r="K183" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L183" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M183" t="n">
+        <v>4</v>
+      </c>
+      <c r="N183" t="n">
+        <v>4</v>
+      </c>
+      <c r="O183" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -6412,6 +9142,24 @@
       <c r="I184" t="n">
         <v>-7</v>
       </c>
+      <c r="J184" t="n">
+        <v>-4</v>
+      </c>
+      <c r="K184" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L184" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M184" t="n">
+        <v>8</v>
+      </c>
+      <c r="N184" t="n">
+        <v>5</v>
+      </c>
+      <c r="O184" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -6447,6 +9195,22 @@
       <c r="I185" t="n">
         <v>-3</v>
       </c>
+      <c r="J185" t="n">
+        <v>-9</v>
+      </c>
+      <c r="K185" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L185" t="n">
+        <v>3</v>
+      </c>
+      <c r="M185" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N185" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -6476,6 +9240,24 @@
         <v>5</v>
       </c>
       <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>2</v>
+      </c>
+      <c r="K186" t="n">
+        <v>-8</v>
+      </c>
+      <c r="L186" t="n">
+        <v>4</v>
+      </c>
+      <c r="M186" t="n">
+        <v>5</v>
+      </c>
+      <c r="N186" t="n">
+        <v>2</v>
+      </c>
+      <c r="O186" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -6511,6 +9293,24 @@
       <c r="I187" t="n">
         <v>2</v>
       </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2</v>
+      </c>
+      <c r="M187" t="n">
+        <v>9</v>
+      </c>
+      <c r="N187" t="n">
+        <v>3</v>
+      </c>
+      <c r="O187" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -6544,6 +9344,20 @@
       <c r="I188" t="n">
         <v>-2</v>
       </c>
+      <c r="J188" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N188" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O188" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -6579,6 +9393,22 @@
       <c r="I189" t="n">
         <v>-5</v>
       </c>
+      <c r="J189" t="n">
+        <v>-8</v>
+      </c>
+      <c r="K189" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>7</v>
+      </c>
+      <c r="N189" t="n">
+        <v>7</v>
+      </c>
+      <c r="O189" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -6614,6 +9444,20 @@
       <c r="I190" t="n">
         <v>-8</v>
       </c>
+      <c r="J190" t="n">
+        <v>-7</v>
+      </c>
+      <c r="K190" t="n">
+        <v>-9</v>
+      </c>
+      <c r="L190" t="n">
+        <v>5</v>
+      </c>
+      <c r="M190" t="n">
+        <v>6</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -6641,6 +9485,18 @@
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6672,6 +9528,20 @@
         <v>-1</v>
       </c>
       <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L192" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+      <c r="O192" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6699,6 +9569,12 @@
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6734,6 +9610,20 @@
       <c r="I194" t="n">
         <v>-6</v>
       </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L194" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M194" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6766,6 +9656,20 @@
       </c>
       <c r="I195" t="n">
         <v>-4</v>
+      </c>
+      <c r="J195" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K195" t="n">
+        <v>2</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="196">
@@ -6792,6 +9696,14 @@
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>2</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6823,6 +9735,14 @@
       <c r="I197" t="n">
         <v>-1</v>
       </c>
+      <c r="J197" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6858,6 +9778,24 @@
       <c r="I198" t="n">
         <v>-9</v>
       </c>
+      <c r="J198" t="n">
+        <v>3</v>
+      </c>
+      <c r="K198" t="n">
+        <v>-10</v>
+      </c>
+      <c r="L198" t="n">
+        <v>6</v>
+      </c>
+      <c r="M198" t="n">
+        <v>3</v>
+      </c>
+      <c r="N198" t="n">
+        <v>6</v>
+      </c>
+      <c r="O198" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6889,6 +9827,22 @@
       </c>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K199" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L199" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="n">
         <v>1</v>
       </c>
     </row>
